--- a/Laufzeiten OpenMP.xlsx
+++ b/Laufzeiten OpenMP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Laufzeiten OpenMP Quicksort</t>
   </si>
@@ -43,9 +43,6 @@
   <si>
     <t>Sequentielle
 Laufzeit</t>
-  </si>
-  <si>
-    <t>Speedup</t>
   </si>
   <si>
     <t>1 Mio - random Zahlen, Seed= 987654321</t>
@@ -428,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -479,7 +476,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
@@ -536,12 +532,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-AT" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="de-AT" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Speedup 10 million random integers</a:t>
             </a:r>
-            <a:endParaRPr lang="de-AT">
+            <a:endParaRPr lang="de-AT" sz="1400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -1135,12 +1131,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-AT" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="de-AT" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Speedup 1 million random integers</a:t>
             </a:r>
-            <a:endParaRPr lang="de-AT">
+            <a:endParaRPr lang="de-AT" sz="1400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -1150,8 +1146,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14298600174978127"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:x val="0.23743044619422571"/>
+          <c:y val="3.7037037037037035E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1707,6 +1703,1206 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Speedup 1 million random integers</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speedup Implementation 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$38:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$38:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0059729270092734</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71546964207934605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81321004041333811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58643044198599747</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2878235480356876</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23396223196647292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23924616537195911</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25189853076216712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23881034244855084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D657-440A-9154-70FC308CFE60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speedup Implementation 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$38:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$E$38:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.82389318003830869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77004970054753408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75798992128377563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58089807932575221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27608193967647232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24520208216293232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24089405245675624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25043421500090152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23561436520344706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D657-440A-9154-70FC308CFE60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1433609984"/>
+        <c:axId val="1433608736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1433609984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1433608736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1433608736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1433609984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Speedup 10 million random integers</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speedup Implementation 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$52:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$E$52:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.77523802756229965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95202895449510594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88314042738923526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67671924520590776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29612366759894349</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27284087560997505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27077164107818075</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26944772492379798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25974859573447751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A1D-4FBA-A0A8-14BE9C9F1638}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speedup Implementation 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$52:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$52:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0046153366389123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1486977549198114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89739649111906994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68243424707906974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28575890293518613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26925326483091533</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27169835398592135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26831479896378296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26728459013972239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A1D-4FBA-A0A8-14BE9C9F1638}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1520672864"/>
+        <c:axId val="1520679520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1520672864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1520679520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1520679520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1520672864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1787,6 +2983,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2304,6 +3580,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2824,15 +5132,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>21647</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>13854</xdr:rowOff>
+      <xdr:colOff>12988</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>178376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>21647</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>20781</xdr:rowOff>
+      <xdr:colOff>12988</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>185303</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2856,13 +5164,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>757670</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>31173</xdr:rowOff>
+      <xdr:rowOff>5195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>757670</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>12122</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2876,6 +5184,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12988</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>238991</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12988</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>3463</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4329</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>195694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4329</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>12122</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3150,11 +5518,13 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3175,7 +5545,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -3205,13 +5575,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -3222,14 +5592,14 @@
       <c r="B7" s="13">
         <v>0.12209200000000001</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <f>$F$16/B7</f>
         <v>1.005762503321721</v>
       </c>
       <c r="D7" s="13">
         <v>0.14593999999999999</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <f>$F$16/D7</f>
         <v>0.84141123444946953</v>
       </c>
@@ -3244,14 +5614,14 @@
       <c r="B8" s="1">
         <v>0.12733800000000001</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <f t="shared" ref="C8:C15" si="0">$F$16/B8</f>
         <v>0.9643276598937911</v>
       </c>
       <c r="D8" s="1">
         <v>0.121333</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <f t="shared" ref="E8:E15" si="1">$F$16/D8</f>
         <v>1.0120540624195855</v>
       </c>
@@ -3266,14 +5636,14 @@
       <c r="B9" s="1">
         <v>0.12584300000000001</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <f t="shared" si="0"/>
         <v>0.97578375877526413</v>
       </c>
       <c r="D9" s="1">
         <v>0.15187200000000001</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <f t="shared" si="1"/>
         <v>0.80854637823664377</v>
       </c>
@@ -3288,14 +5658,14 @@
       <c r="B10" s="1">
         <v>0.124541</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <f t="shared" si="0"/>
         <v>0.98598498129576262</v>
       </c>
       <c r="D10" s="1">
         <v>0.128164</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <f t="shared" si="1"/>
         <v>0.95811269588617376</v>
       </c>
@@ -3310,14 +5680,14 @@
       <c r="B11" s="1">
         <v>0.13614799999999999</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <f t="shared" si="0"/>
         <v>0.90192698795102078</v>
       </c>
       <c r="D11" s="1">
         <v>0.12925300000000001</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <f t="shared" si="1"/>
         <v>0.95004027415654235</v>
       </c>
@@ -3332,14 +5702,14 @@
       <c r="B12" s="1">
         <v>0.13092000000000001</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <f t="shared" si="0"/>
         <v>0.93794344298468968</v>
       </c>
       <c r="D12" s="1">
         <v>0.18146200000000001</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <f t="shared" si="1"/>
         <v>0.67670121323227761</v>
       </c>
@@ -3354,14 +5724,14 @@
       <c r="B13" s="1">
         <v>0.14111099999999999</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <f t="shared" si="0"/>
         <v>0.87020540961055892</v>
       </c>
       <c r="D13" s="22">
         <v>0.16760700000000001</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="24">
         <f>$F$16/D13</f>
         <v>0.73263977969628702</v>
       </c>
@@ -3376,14 +5746,14 @@
       <c r="B14" s="1">
         <v>0.12114999999999999</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <f t="shared" si="0"/>
         <v>1.0135827945155227</v>
       </c>
       <c r="D14" s="1">
         <v>0.172818</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="24">
         <f>$F$16/D14</f>
         <v>0.71054841252390133</v>
       </c>
@@ -3398,14 +5768,14 @@
       <c r="B15" s="11">
         <v>0.15071699999999999</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <f t="shared" si="0"/>
         <v>0.81474256756408092</v>
       </c>
       <c r="D15" s="11">
         <v>0.17877399999999999</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <f t="shared" si="1"/>
         <v>0.68687591906851997</v>
       </c>
@@ -3421,7 +5791,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -3451,13 +5821,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -3468,14 +5838,14 @@
       <c r="B21" s="13">
         <v>1.4973240000000001</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <f>$F$30/B21</f>
         <v>0.90879313881149149</v>
       </c>
       <c r="D21" s="13">
         <v>2.1056159999999999</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="24">
         <f>$F$30/D21</f>
         <v>0.64625163267080876</v>
       </c>
@@ -3490,14 +5860,14 @@
       <c r="B22" s="1">
         <v>1.3441989999999999</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <f t="shared" ref="C22:C29" si="2">$F$30/B22</f>
         <v>1.0123186952064225</v>
       </c>
       <c r="D22" s="1">
         <v>1.870441</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="24">
         <f t="shared" ref="E22:E29" si="3">$F$30/D22</f>
         <v>0.72750638901616127</v>
       </c>
@@ -3512,14 +5882,14 @@
       <c r="B23" s="1">
         <v>1.303037</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <f t="shared" si="2"/>
         <v>1.0442971134187116</v>
       </c>
       <c r="D23" s="1">
         <v>2.0303010000000001</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="24">
         <f t="shared" si="3"/>
         <v>0.67022465032415279</v>
       </c>
@@ -3534,14 +5904,14 @@
       <c r="B24" s="1">
         <v>1.3168960000000001</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="25">
         <f t="shared" si="2"/>
         <v>1.0333069413057505</v>
       </c>
       <c r="D24" s="1">
         <v>1.988702</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="24">
         <f t="shared" si="3"/>
         <v>0.68424418428592004</v>
       </c>
@@ -3556,14 +5926,14 @@
       <c r="B25" s="1">
         <v>1.308381</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="25">
         <f t="shared" si="2"/>
         <v>1.0400317474632983</v>
       </c>
       <c r="D25" s="1">
         <v>1.7811300000000001</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="24">
         <f t="shared" si="3"/>
         <v>0.76398565954072839</v>
       </c>
@@ -3578,14 +5948,14 @@
       <c r="B26" s="1">
         <v>1.300797</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="25">
         <f t="shared" si="2"/>
         <v>1.0460954151783697</v>
       </c>
       <c r="D26" s="1">
         <v>1.6125039999999999</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="24">
         <f t="shared" si="3"/>
         <v>0.84387869907781798</v>
       </c>
@@ -3600,14 +5970,14 @@
       <c r="B27" s="1">
         <v>1.3362989999999999</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <f t="shared" si="2"/>
         <v>1.0183033720580332</v>
       </c>
       <c r="D27" s="1">
         <v>1.9669639999999999</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="24">
         <f t="shared" si="3"/>
         <v>0.69180614275491459</v>
       </c>
@@ -3622,14 +5992,14 @@
       <c r="B28" s="1">
         <v>1.301072</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <f t="shared" si="2"/>
         <v>1.0458743080919255</v>
       </c>
       <c r="D28" s="1">
         <v>1.681832</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="24">
         <f t="shared" si="3"/>
         <v>0.80909257153971248</v>
       </c>
@@ -3644,14 +6014,14 @@
       <c r="B29" s="11">
         <v>1.328735</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="26">
         <f t="shared" si="2"/>
         <v>1.02410019889427</v>
       </c>
       <c r="D29" s="11">
         <v>1.867248</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <f t="shared" si="3"/>
         <v>0.72875042724789518</v>
       </c>
@@ -3668,7 +6038,7 @@
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -3682,7 +6052,7 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -3706,19 +6076,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="24" t="s">
-        <v>6</v>
+      <c r="C37" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="24" t="s">
-        <v>6</v>
+      <c r="E37" s="23" t="s">
+        <v>11</v>
       </c>
       <c r="F37" s="16"/>
     </row>
@@ -3729,14 +6099,14 @@
       <c r="B38" s="13">
         <v>0.121195</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="25">
         <f>$F$47/B38</f>
         <v>1.0059729270092734</v>
       </c>
       <c r="D38" s="13">
         <v>0.147979</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="24">
         <f>$F$47/D38</f>
         <v>0.82389318003830869</v>
       </c>
@@ -3751,14 +6121,14 @@
       <c r="B39" s="1">
         <v>0.170404</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="25">
         <f t="shared" ref="C39:C46" si="4">$F$47/B39</f>
         <v>0.71546964207934605</v>
       </c>
       <c r="D39" s="1">
         <v>0.15832599999999999</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="24">
         <f t="shared" ref="E39:E46" si="5">$F$47/D39</f>
         <v>0.77004970054753408</v>
       </c>
@@ -3773,14 +6143,14 @@
       <c r="B40" s="1">
         <v>0.149923</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="25">
         <f t="shared" si="4"/>
         <v>0.81321004041333811</v>
       </c>
       <c r="D40" s="1">
         <v>0.16084499999999999</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="24">
         <f t="shared" si="5"/>
         <v>0.75798992128377563</v>
       </c>
@@ -3795,14 +6165,14 @@
       <c r="B41" s="1">
         <v>0.2079</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C41" s="25">
         <f t="shared" si="4"/>
         <v>0.58643044198599747</v>
       </c>
       <c r="D41" s="1">
         <v>0.20988000000000001</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="24">
         <f t="shared" si="5"/>
         <v>0.58089807932575221</v>
       </c>
@@ -3817,14 +6187,14 @@
       <c r="B42" s="1">
         <v>0.42358899999999999</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="25">
         <f t="shared" si="4"/>
         <v>0.2878235480356876</v>
       </c>
       <c r="D42" s="1">
         <v>0.441604</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="24">
         <f t="shared" si="5"/>
         <v>0.27608193967647232</v>
       </c>
@@ -3839,14 +6209,14 @@
       <c r="B43" s="1">
         <v>0.52110500000000004</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="25">
         <f t="shared" si="4"/>
         <v>0.23396223196647292</v>
       </c>
       <c r="D43" s="1">
         <v>0.49721799999999999</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="24">
         <f t="shared" si="5"/>
         <v>0.24520208216293232</v>
       </c>
@@ -3861,14 +6231,14 @@
       <c r="B44" s="1">
         <v>0.50959600000000005</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="25">
         <f t="shared" si="4"/>
         <v>0.23924616537195911</v>
       </c>
       <c r="D44" s="22">
         <v>0.50610999999999995</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="24">
         <f t="shared" si="5"/>
         <v>0.24089405245675624</v>
       </c>
@@ -3883,14 +6253,14 @@
       <c r="B45" s="1">
         <v>0.48399999999999999</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="25">
         <f t="shared" si="4"/>
         <v>0.25189853076216712</v>
       </c>
       <c r="D45" s="1">
         <v>0.48682999999999998</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="24">
         <f t="shared" si="5"/>
         <v>0.25043421500090152</v>
       </c>
@@ -3905,14 +6275,14 @@
       <c r="B46" s="11">
         <v>0.51052600000000004</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="26">
         <f t="shared" si="4"/>
         <v>0.23881034244855084</v>
       </c>
       <c r="D46" s="11">
         <v>0.51745099999999999</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="27">
         <f t="shared" si="5"/>
         <v>0.23561436520344706</v>
       </c>
@@ -3922,16 +6292,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="29">
+        <v>9</v>
+      </c>
+      <c r="F47" s="28">
         <f>AVERAGE(F38:F46)</f>
         <v>0.12191888888888888</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -3955,19 +6325,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="24" t="s">
-        <v>6</v>
+      <c r="C51" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="24" t="s">
-        <v>6</v>
+      <c r="E51" s="23" t="s">
+        <v>11</v>
       </c>
       <c r="F51" s="16"/>
     </row>
@@ -3978,14 +6348,14 @@
       <c r="B52" s="13">
         <v>1.3610660000000001</v>
       </c>
-      <c r="C52" s="26">
+      <c r="C52" s="25">
         <f>$F$61/B52</f>
         <v>1.0046153366389123</v>
       </c>
       <c r="D52" s="13">
         <v>1.7637780000000001</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="24">
         <f>$F$61/D52</f>
         <v>0.77523802756229965</v>
       </c>
@@ -4000,14 +6370,14 @@
       <c r="B53" s="1">
         <v>1.1903459999999999</v>
       </c>
-      <c r="C53" s="26">
+      <c r="C53" s="25">
         <f t="shared" ref="C53:C60" si="6">$F$61/B53</f>
         <v>1.1486977549198114</v>
       </c>
       <c r="D53" s="1">
         <v>1.4362459999999999</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="24">
         <f t="shared" ref="E53:E60" si="7">$F$61/D53</f>
         <v>0.95202895449510594</v>
       </c>
@@ -4022,14 +6392,14 @@
       <c r="B54" s="1">
         <v>1.5236829999999999</v>
       </c>
-      <c r="C54" s="26">
+      <c r="C54" s="25">
         <f t="shared" si="6"/>
         <v>0.89739649111906994</v>
       </c>
       <c r="D54" s="1">
         <v>1.548279</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="24">
         <f t="shared" si="7"/>
         <v>0.88314042738923526</v>
       </c>
@@ -4044,14 +6414,14 @@
       <c r="B55" s="1">
         <v>2.0036330000000002</v>
       </c>
-      <c r="C55" s="26">
+      <c r="C55" s="25">
         <f t="shared" si="6"/>
         <v>0.68243424707906974</v>
       </c>
       <c r="D55" s="1">
         <v>2.0205540000000002</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E55" s="24">
         <f t="shared" si="7"/>
         <v>0.67671924520590776</v>
       </c>
@@ -4066,14 +6436,14 @@
       <c r="B56" s="1">
         <v>4.7849700000000004</v>
       </c>
-      <c r="C56" s="26">
+      <c r="C56" s="25">
         <f t="shared" si="6"/>
         <v>0.28575890293518613</v>
       </c>
       <c r="D56" s="1">
         <v>4.617489</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="24">
         <f t="shared" si="7"/>
         <v>0.29612366759894349</v>
       </c>
@@ -4088,14 +6458,14 @@
       <c r="B57" s="1">
         <v>5.0782959999999999</v>
       </c>
-      <c r="C57" s="26">
+      <c r="C57" s="25">
         <f t="shared" si="6"/>
         <v>0.26925326483091533</v>
       </c>
       <c r="D57" s="1">
         <v>5.0115210000000001</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="24">
         <f t="shared" si="7"/>
         <v>0.27284087560997505</v>
       </c>
@@ -4110,14 +6480,14 @@
       <c r="B58" s="1">
         <v>5.0325949999999997</v>
       </c>
-      <c r="C58" s="26">
+      <c r="C58" s="25">
         <f t="shared" si="6"/>
         <v>0.27169835398592135</v>
       </c>
       <c r="D58" s="22">
         <v>5.0498190000000003</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="24">
         <f t="shared" si="7"/>
         <v>0.27077164107818075</v>
       </c>
@@ -4132,14 +6502,14 @@
       <c r="B59" s="1">
         <v>5.0960580000000002</v>
       </c>
-      <c r="C59" s="26">
+      <c r="C59" s="25">
         <f t="shared" si="6"/>
         <v>0.26831479896378296</v>
       </c>
       <c r="D59" s="1">
         <v>5.0746310000000001</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="24">
         <f t="shared" si="7"/>
         <v>0.26944772492379798</v>
       </c>
@@ -4154,14 +6524,14 @@
       <c r="B60" s="11">
         <v>5.1157000000000004</v>
       </c>
-      <c r="C60" s="27">
+      <c r="C60" s="26">
         <f t="shared" si="6"/>
         <v>0.26728459013972239</v>
       </c>
       <c r="D60" s="11">
         <v>5.2641200000000001</v>
       </c>
-      <c r="E60" s="28">
+      <c r="E60" s="27">
         <f t="shared" si="7"/>
         <v>0.25974859573447751</v>
       </c>
@@ -4171,9 +6541,9 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="29">
+        <v>9</v>
+      </c>
+      <c r="F61" s="28">
         <f>AVERAGE(F52:F60)</f>
         <v>1.3673477777777778</v>
       </c>

--- a/Laufzeiten OpenMP.xlsx
+++ b/Laufzeiten OpenMP.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\parcomp_ws17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Calvin 1/Dropbox/TU/5. Semester/parcomp/parcomp_ws17/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="11440" yWindow="-28340" windowWidth="33020" windowHeight="22760"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>Laufzeiten OpenMP Quicksort</t>
   </si>
@@ -62,12 +68,57 @@
   <si>
     <t>Speedup Implementation 2</t>
   </si>
+  <si>
+    <t>n=2; npt=2</t>
+  </si>
+  <si>
+    <t>n=4, npt =2</t>
+  </si>
+  <si>
+    <t>n=8; npt=2</t>
+  </si>
+  <si>
+    <t>n=8, npt =4</t>
+  </si>
+  <si>
+    <t>n=16, npt=4</t>
+  </si>
+  <si>
+    <t>n=16, npt=8</t>
+  </si>
+  <si>
+    <t>n=32; npt=8</t>
+  </si>
+  <si>
+    <t>Laufzeiten MPI Quicksort</t>
+  </si>
+  <si>
+    <t>n=2</t>
+  </si>
+  <si>
+    <t>2^19 Mio - random Zahlen, Seed= 987654321</t>
+  </si>
+  <si>
+    <t>2^20 - random Zahlen, Seed= 987654321</t>
+  </si>
+  <si>
+    <t>--ntasks-per-node</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -N</t>
+  </si>
+  <si>
+    <t>Processors</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +149,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,139 +192,139 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -257,32 +332,32 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -290,53 +365,53 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -345,76 +420,76 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -422,55 +497,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -481,9 +522,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,7 +581,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -532,14 +614,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-AT" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Speedup 10 million random integers</a:t>
+              <a:rPr lang="de-AT"/>
+              <a:t>Speedup 2^20 random integers</a:t>
             </a:r>
-            <a:endParaRPr lang="de-AT" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -576,25 +653,17 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$C$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Speedup Implementation 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Speedup</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -605,189 +674,79 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$21:$A$29</c:f>
+              <c:f>Tabelle1!$A$73:$A$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$21:$C$29</c:f>
+              <c:f>Tabelle1!$C$73:$C$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.90879313881149149</c:v>
+                  <c:v>1.003546199307782</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0123186952064225</c:v>
+                  <c:v>1.311560918395622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0442971134187116</c:v>
+                  <c:v>1.724526051639822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0333069413057505</c:v>
+                  <c:v>2.043119041907381</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0400317474632983</c:v>
+                  <c:v>2.577243503254028</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0460954151783697</c:v>
+                  <c:v>3.885980382674358</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0183033720580332</c:v>
+                  <c:v>6.728944899676329</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0458743080919255</c:v>
+                  <c:v>6.819532548328481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.02410019889427</c:v>
+                  <c:v>8.45405534588138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D2FE-4589-89DB-CD1E7A3B0D48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$E$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Speedup Implementation 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$A$21:$A$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$E$21:$E$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.64625163267080876</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.72750638901616127</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.67022465032415279</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.68424418428592004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.76398565954072839</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84387869907781798</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69180614275491459</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.80909257153971248</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.72875042724789518</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D2FE-4589-89DB-CD1E7A3B0D48}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -797,12 +756,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1580599424"/>
-        <c:axId val="1580599008"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1580599424"/>
+        <c:axId val="640423648"/>
+        <c:axId val="640843440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="640423648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,8 +786,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-AT"/>
-                  <a:t>Threads</a:t>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Processors</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -864,7 +822,6 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -873,8 +830,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -901,15 +858,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1580599008"/>
+        <c:crossAx val="640843440"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1580599008"/>
+        <c:axId val="640843440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +903,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-AT"/>
+                  <a:rPr lang="de-DE"/>
                   <a:t>Speedup</a:t>
                 </a:r>
               </a:p>
@@ -985,14 +939,19 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1016,9 +975,989 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1580599424"/>
+        <c:crossAx val="640423648"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup 2^19 random integers</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Speedup</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$92:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$92:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.998436143193349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.598569570042978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.791008602149962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.108401288911361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.764177038968133</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.352895750217126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.022568497691196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.629524017810078</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.59110397927124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="511560688"/>
+        <c:axId val="511381360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="511560688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511381360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="511381360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511560688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Speedup 1 million random integers</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Speedup Implementation 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$7:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$7:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.005762503321721</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.964327659893791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.975783758775264</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.985984981295763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.901926987951021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93794344298469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.870205409610559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.013582794515523</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.814742567564081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Speedup Implementation 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$7:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$7:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.841411234449469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.012054062419586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.808546378236644</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.958112695886174</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.950040274156542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.676701213232278</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.732639779696287</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.710548412523901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68687591906852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="659104272"/>
+        <c:axId val="707692320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="659104272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="707692320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="707692320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="659104272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1091,14 +2030,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -1131,25 +2070,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-AT" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Speedup 1 million random integers</a:t>
+              <a:rPr lang="de-AT"/>
+              <a:t>Speedup 10 million random integers</a:t>
             </a:r>
-            <a:endParaRPr lang="de-AT" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.23743044619422571"/>
-          <c:y val="3.7037037037037035E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1182,25 +2109,17 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Speedup Implementation 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Speedup Implementation 1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1211,101 +2130,88 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$7:$A$15</c:f>
+              <c:f>Tabelle1!$A$21:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$7:$C$15</c:f>
+              <c:f>Tabelle1!$C$21:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.005762503321721</c:v>
+                  <c:v>0.908793138811491</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9643276598937911</c:v>
+                  <c:v>1.012318695206422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97578375877526413</c:v>
+                  <c:v>1.044297113418712</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98598498129576262</c:v>
+                  <c:v>1.033306941305751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90192698795102078</c:v>
+                  <c:v>1.040031747463298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93794344298468968</c:v>
+                  <c:v>1.04609541517837</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87020540961055892</c:v>
+                  <c:v>1.018303372058033</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0135827945155227</c:v>
+                  <c:v>1.045874308091925</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81474256756408092</c:v>
+                  <c:v>1.02410019889427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9DAD-4252-A6FC-36AECAB3D930}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Speedup Implementation 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Speedup Implementation 2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1316,84 +2222,79 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$7:$A$15</c:f>
+              <c:f>Tabelle1!$A$21:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$7:$E$15</c:f>
+              <c:f>Tabelle1!$E$21:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.84141123444946953</c:v>
+                  <c:v>0.646251632670809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0120540624195855</c:v>
+                  <c:v>0.727506389016161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80854637823664377</c:v>
+                  <c:v>0.670224650324153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95811269588617376</c:v>
+                  <c:v>0.68424418428592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95004027415654235</c:v>
+                  <c:v>0.763985659540728</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67670121323227761</c:v>
+                  <c:v>0.843878699077818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.73263977969628702</c:v>
+                  <c:v>0.691806142754914</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71054841252390133</c:v>
+                  <c:v>0.809092571539712</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68687591906851997</c:v>
+                  <c:v>0.728750427247895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9DAD-4252-A6FC-36AECAB3D930}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1403,12 +2304,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1520677440"/>
-        <c:axId val="1520681600"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1520677440"/>
+        <c:axId val="705401536"/>
+        <c:axId val="704789152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="705401536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,7 +2334,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-AT"/>
+                  <a:rPr lang="de-DE"/>
                   <a:t>Threads</a:t>
                 </a:r>
               </a:p>
@@ -1470,7 +2370,6 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1479,8 +2378,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1507,15 +2406,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1520681600"/>
+        <c:crossAx val="704789152"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1520681600"/>
+        <c:axId val="704789152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,7 +2451,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-AT"/>
+                  <a:rPr lang="de-DE"/>
                   <a:t>Speedup</a:t>
                 </a:r>
               </a:p>
@@ -1591,485 +2487,6 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1520677440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-AT" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Speedup 1 million random integers</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-AT" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$C$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Speedup Implementation 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$A$38:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$C$38:$C$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.0059729270092734</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.71546964207934605</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.81321004041333811</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.58643044198599747</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2878235480356876</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.23396223196647292</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23924616537195911</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25189853076216712</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.23881034244855084</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D657-440A-9154-70FC308CFE60}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$E$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Speedup Implementation 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Tabelle1!$A$38:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$E$38:$E$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.82389318003830869</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.77004970054753408</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75798992128377563</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.58089807932575221</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27608193967647232</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.24520208216293232</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.24089405245675624</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25043421500090152</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.23561436520344706</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D657-440A-9154-70FC308CFE60}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1433609984"/>
-        <c:axId val="1433608736"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1433609984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-AT"/>
-                  <a:t>Threads</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2078,8 +2495,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2106,124 +2523,9 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1433608736"/>
+        <c:crossAx val="705401536"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1433608736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-AT"/>
-                  <a:t>Speedup</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1433609984"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2296,14 +2598,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -2336,14 +2638,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-AT" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Speedup 10 million random integers</a:t>
+              <a:rPr lang="de-AT"/>
+              <a:t>Speedup 1million random integers</a:t>
             </a:r>
-            <a:endParaRPr lang="de-AT" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2380,25 +2677,17 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$E$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Speedup Implementation 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Speedup Implementation 1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2409,101 +2698,88 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$52:$A$60</c:f>
+              <c:f>Tabelle1!$A$38:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$52:$E$60</c:f>
+              <c:f>Tabelle1!$C$38:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.77523802756229965</c:v>
+                  <c:v>1.005972927009273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95202895449510594</c:v>
+                  <c:v>0.715469642079346</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88314042738923526</c:v>
+                  <c:v>0.813210040413338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67671924520590776</c:v>
+                  <c:v>0.586430441985997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29612366759894349</c:v>
+                  <c:v>0.287823548035688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27284087560997505</c:v>
+                  <c:v>0.233962231966473</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27077164107818075</c:v>
+                  <c:v>0.239246165371959</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26944772492379798</c:v>
+                  <c:v>0.251898530762167</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25974859573447751</c:v>
+                  <c:v>0.238810342448551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A1D-4FBA-A0A8-14BE9C9F1638}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$C$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Speedup Implementation 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Speedup Implementation 2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -2514,84 +2790,79 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$52:$A$60</c:f>
+              <c:f>Tabelle1!$A$38:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$52:$C$60</c:f>
+              <c:f>Tabelle1!$E$38:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.0046153366389123</c:v>
+                  <c:v>0.823893180038309</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1486977549198114</c:v>
+                  <c:v>0.770049700547534</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89739649111906994</c:v>
+                  <c:v>0.757989921283776</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68243424707906974</c:v>
+                  <c:v>0.580898079325752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28575890293518613</c:v>
+                  <c:v>0.276081939676472</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26925326483091533</c:v>
+                  <c:v>0.245202082162932</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27169835398592135</c:v>
+                  <c:v>0.240894052456756</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26831479896378296</c:v>
+                  <c:v>0.250434215000901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26728459013972239</c:v>
+                  <c:v>0.235614365203447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2A1D-4FBA-A0A8-14BE9C9F1638}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2601,12 +2872,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1520672864"/>
-        <c:axId val="1520679520"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1520672864"/>
+        <c:axId val="661424592"/>
+        <c:axId val="510554352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="661424592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2632,7 +2902,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-AT"/>
+                  <a:rPr lang="de-DE"/>
                   <a:t>Threads</a:t>
                 </a:r>
               </a:p>
@@ -2668,7 +2938,6 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2677,8 +2946,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2705,19 +2974,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1520679520"/>
+        <c:crossAx val="510554352"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1520679520"/>
+        <c:axId val="510554352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.2"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2755,7 +3019,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-AT"/>
+                  <a:rPr lang="de-DE"/>
                   <a:t>Speedup</a:t>
                 </a:r>
               </a:p>
@@ -2791,14 +3055,19 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2822,9 +3091,9 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1520672864"/>
+        <c:crossAx val="661424592"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2897,7 +3166,575 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Speedup 10 million random integers</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Speedup Implementation 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$52:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$52:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.004615336638912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.148697754919811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89739649111907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68243424707907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.285758902935186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.269253264830915</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.271698353985921</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.268314798963783</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.267284590139722</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Speedup Implementation 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$52:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$52:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.7752380275623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.952028954495106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.883140427389235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.676719245205908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.296123667598943</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.272840875609975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.270771641078181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.269447724923798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.259748595734477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="660116128"/>
+        <c:axId val="550361696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="660116128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550361696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="550361696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660116128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3063,8 +3900,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3091,8 +4008,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3172,11 +4089,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3187,11 +4099,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3203,7 +4110,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3223,9 +4130,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3238,10 +4142,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3281,22 +4185,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3401,8 +4306,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3534,19 +4439,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3560,6 +4466,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3580,7 +4497,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3607,8 +4524,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3688,11 +4605,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3703,11 +4615,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3719,7 +4626,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3739,9 +4646,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3754,10 +4658,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3797,22 +4701,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3917,8 +4822,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4050,19 +4955,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4076,6 +4982,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4096,7 +5013,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4123,8 +5040,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4204,11 +5121,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4219,11 +5131,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4235,7 +5142,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4255,9 +5162,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4270,10 +5174,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4313,22 +5217,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4433,8 +5338,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4566,19 +5471,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4592,6 +5498,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4612,7 +5529,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4639,8 +5556,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4720,11 +5637,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4735,11 +5647,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4751,7 +5658,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4771,9 +5678,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4786,10 +5690,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4829,22 +5733,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4949,8 +5854,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5082,23 +5987,240 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -5108,6 +6230,833 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5132,19 +7081,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>12988</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>178376</xdr:rowOff>
+      <xdr:colOff>23090</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>238991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>12988</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>185303</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438727</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>118918</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5162,20 +7111,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>757670</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>5195</xdr:rowOff>
+      <xdr:colOff>785092</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>757670</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12122</xdr:rowOff>
+      <xdr:colOff>438728</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Diagramm 6"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="10" name="Diagramm 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5192,20 +7143,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>12988</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>238991</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>12988</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>3463</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157018</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Diagramm 7"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="11" name="Diagramm 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5221,21 +7174,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4329</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>195694</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>831272</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>4329</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>12122</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>461817</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80818</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Diagramm 8"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="12" name="Diagramm 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5244,6 +7199,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>80819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600363</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>23092</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Diagramm 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>461818</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>150092</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Diagramm 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5515,1041 +7534,1608 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="7">
         <v>0.12209200000000001</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="13">
         <f>$F$16/B7</f>
         <v>1.005762503321721</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="7">
         <v>0.14593999999999999</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="12">
         <f>$F$16/D7</f>
         <v>0.84141123444946953</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="6">
         <v>0.12784000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" s="1">
         <v>0.12733800000000001</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="13">
         <f t="shared" ref="C8:C15" si="0">$F$16/B8</f>
         <v>0.9643276598937911</v>
       </c>
       <c r="D8" s="1">
         <v>0.121333</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="12">
         <f t="shared" ref="E8:E15" si="1">$F$16/D8</f>
         <v>1.0120540624195855</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>0.11756999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
       <c r="B9" s="1">
         <v>0.12584300000000001</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="13">
         <f t="shared" si="0"/>
         <v>0.97578375877526413</v>
       </c>
       <c r="D9" s="1">
         <v>0.15187200000000001</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="12">
         <f t="shared" si="1"/>
         <v>0.80854637823664377</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>0.1338</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>0.124541</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="13">
         <f t="shared" si="0"/>
         <v>0.98598498129576262</v>
       </c>
       <c r="D10" s="1">
         <v>0.128164</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="12">
         <f t="shared" si="1"/>
         <v>0.95811269588617376</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>0.11762</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>0.13614799999999999</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="13">
         <f t="shared" si="0"/>
         <v>0.90192698795102078</v>
       </c>
       <c r="D11" s="1">
         <v>0.12925300000000001</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="12">
         <f t="shared" si="1"/>
         <v>0.95004027415654235</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>0.11778</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>0.13092000000000001</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="13">
         <f t="shared" si="0"/>
         <v>0.93794344298468968</v>
       </c>
       <c r="D12" s="1">
         <v>0.18146200000000001</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="12">
         <f t="shared" si="1"/>
         <v>0.67670121323227761</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>0.12101000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>0.14111099999999999</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="13">
         <f t="shared" si="0"/>
         <v>0.87020540961055892</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="10">
         <v>0.16760700000000001</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="12">
         <f>$F$16/D13</f>
         <v>0.73263977969628702</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="9">
         <v>0.11814</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>32</v>
       </c>
       <c r="B14" s="1">
         <v>0.12114999999999999</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="13">
         <f t="shared" si="0"/>
         <v>1.0135827945155227</v>
       </c>
       <c r="D14" s="1">
         <v>0.172818</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="12">
         <f>$F$16/D14</f>
         <v>0.71054841252390133</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>0.12661</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+    <row r="15" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>48</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="5">
         <v>0.15071699999999999</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="14">
         <f t="shared" si="0"/>
         <v>0.81474256756408092</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="5">
         <v>0.17877399999999999</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="15">
         <f t="shared" si="1"/>
         <v>0.68687591906851997</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>0.12479</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F16">
         <f>AVERAGE(F7:F15)</f>
         <v>0.12279555555555557</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="22"/>
+      <c r="F19" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
         <v>1</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="7">
         <v>1.4973240000000001</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="13">
         <f>$F$30/B21</f>
         <v>0.90879313881149149</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="7">
         <v>2.1056159999999999</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="12">
         <f>$F$30/D21</f>
         <v>0.64625163267080876</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="6">
         <v>1.3478399999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>1.3441989999999999</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="13">
         <f t="shared" ref="C22:C29" si="2">$F$30/B22</f>
         <v>1.0123186952064225</v>
       </c>
       <c r="D22" s="1">
         <v>1.870441</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="12">
         <f t="shared" ref="E22:E29" si="3">$F$30/D22</f>
         <v>0.72750638901616127</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>1.3548800000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>3</v>
       </c>
       <c r="B23" s="1">
         <v>1.303037</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="13">
         <f t="shared" si="2"/>
         <v>1.0442971134187116</v>
       </c>
       <c r="D23" s="1">
         <v>2.0303010000000001</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="12">
         <f t="shared" si="3"/>
         <v>0.67022465032415279</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>1.34748</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>4</v>
       </c>
       <c r="B24" s="1">
         <v>1.3168960000000001</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="13">
         <f t="shared" si="2"/>
         <v>1.0333069413057505</v>
       </c>
       <c r="D24" s="1">
         <v>1.988702</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="12">
         <f t="shared" si="3"/>
         <v>0.68424418428592004</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="3">
         <v>1.33782</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>8</v>
       </c>
       <c r="B25" s="1">
         <v>1.308381</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="13">
         <f t="shared" si="2"/>
         <v>1.0400317474632983</v>
       </c>
       <c r="D25" s="1">
         <v>1.7811300000000001</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="12">
         <f t="shared" si="3"/>
         <v>0.76398565954072839</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="3">
         <v>1.4500500000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>11</v>
       </c>
       <c r="B26" s="1">
         <v>1.300797</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="13">
         <f t="shared" si="2"/>
         <v>1.0460954151783697</v>
       </c>
       <c r="D26" s="1">
         <v>1.6125039999999999</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="12">
         <f t="shared" si="3"/>
         <v>0.84387869907781798</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="3">
         <v>1.3017099999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>16</v>
       </c>
       <c r="B27" s="1">
         <v>1.3362989999999999</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="13">
         <f t="shared" si="2"/>
         <v>1.0183033720580332</v>
       </c>
       <c r="D27" s="1">
         <v>1.9669639999999999</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="12">
         <f t="shared" si="3"/>
         <v>0.69180614275491459</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="3">
         <v>1.3391900000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>32</v>
       </c>
       <c r="B28" s="1">
         <v>1.301072</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="13">
         <f t="shared" si="2"/>
         <v>1.0458743080919255</v>
       </c>
       <c r="D28" s="1">
         <v>1.681832</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="12">
         <f t="shared" si="3"/>
         <v>0.80909257153971248</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="3">
         <v>1.44916</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
+    <row r="29" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>48</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="5">
         <v>1.328735</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="14">
         <f t="shared" si="2"/>
         <v>1.02410019889427</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="5">
         <v>1.867248</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="15">
         <f t="shared" si="3"/>
         <v>0.72875042724789518</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="4">
         <v>1.3186899999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F30">
         <f>AVERAGE(F21:F29)</f>
         <v>1.3607577777777777</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="7" t="s">
+    <row r="32" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="10" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="17" t="s">
+      <c r="E36" s="22"/>
+      <c r="F36" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="3" t="s">
+    <row r="37" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+      <c r="F37" s="24"/>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
         <v>1</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="7">
         <v>0.121195</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="13">
         <f>$F$47/B38</f>
         <v>1.0059729270092734</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="7">
         <v>0.147979</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="12">
         <f>$F$47/D38</f>
         <v>0.82389318003830869</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="6">
         <v>0.12077</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>2</v>
       </c>
       <c r="B39" s="1">
         <v>0.170404</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="13">
         <f t="shared" ref="C39:C46" si="4">$F$47/B39</f>
         <v>0.71546964207934605</v>
       </c>
       <c r="D39" s="1">
         <v>0.15832599999999999</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="12">
         <f t="shared" ref="E39:E46" si="5">$F$47/D39</f>
         <v>0.77004970054753408</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="3">
         <v>0.12105</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>3</v>
       </c>
       <c r="B40" s="1">
         <v>0.149923</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C40" s="13">
         <f t="shared" si="4"/>
         <v>0.81321004041333811</v>
       </c>
       <c r="D40" s="1">
         <v>0.16084499999999999</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="12">
         <f t="shared" si="5"/>
         <v>0.75798992128377563</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="3">
         <v>0.12094000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>4</v>
       </c>
       <c r="B41" s="1">
         <v>0.2079</v>
       </c>
-      <c r="C41" s="25">
+      <c r="C41" s="13">
         <f t="shared" si="4"/>
         <v>0.58643044198599747</v>
       </c>
       <c r="D41" s="1">
         <v>0.20988000000000001</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="12">
         <f t="shared" si="5"/>
         <v>0.58089807932575221</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="3">
         <v>0.12089999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>8</v>
       </c>
       <c r="B42" s="1">
         <v>0.42358899999999999</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="13">
         <f t="shared" si="4"/>
         <v>0.2878235480356876</v>
       </c>
       <c r="D42" s="1">
         <v>0.441604</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="12">
         <f t="shared" si="5"/>
         <v>0.27608193967647232</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="3">
         <v>0.12198000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>11</v>
       </c>
       <c r="B43" s="1">
         <v>0.52110500000000004</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="13">
         <f t="shared" si="4"/>
         <v>0.23396223196647292</v>
       </c>
       <c r="D43" s="1">
         <v>0.49721799999999999</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="12">
         <f t="shared" si="5"/>
         <v>0.24520208216293232</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="3">
         <v>0.12562000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>16</v>
       </c>
       <c r="B44" s="1">
         <v>0.50959600000000005</v>
       </c>
-      <c r="C44" s="25">
+      <c r="C44" s="13">
         <f t="shared" si="4"/>
         <v>0.23924616537195911</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="10">
         <v>0.50610999999999995</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="12">
         <f t="shared" si="5"/>
         <v>0.24089405245675624</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="9">
         <v>0.12182</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>32</v>
       </c>
       <c r="B45" s="1">
         <v>0.48399999999999999</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="13">
         <f t="shared" si="4"/>
         <v>0.25189853076216712</v>
       </c>
       <c r="D45" s="1">
         <v>0.48682999999999998</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="12">
         <f t="shared" si="5"/>
         <v>0.25043421500090152</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="3">
         <v>0.12224</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
+    <row r="46" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>48</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="5">
         <v>0.51052600000000004</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="14">
         <f t="shared" si="4"/>
         <v>0.23881034244855084</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="5">
         <v>0.51745099999999999</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="15">
         <f t="shared" si="5"/>
         <v>0.23561436520344706</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="4">
         <v>0.12195</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="16">
         <f>AVERAGE(F38:F46)</f>
         <v>0.12191888888888888</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
+    <row r="49" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="10" t="s">
+      <c r="C50" s="20"/>
+      <c r="D50" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="17" t="s">
+      <c r="E50" s="22"/>
+      <c r="F50" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="16"/>
-    </row>
-    <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
+      <c r="F51" s="24"/>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
         <v>1</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="7">
         <v>1.3610660000000001</v>
       </c>
-      <c r="C52" s="25">
+      <c r="C52" s="13">
         <f>$F$61/B52</f>
         <v>1.0046153366389123</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="7">
         <v>1.7637780000000001</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="12">
         <f>$F$61/D52</f>
         <v>0.77523802756229965</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="6">
         <v>1.3713299999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>2</v>
       </c>
       <c r="B53" s="1">
         <v>1.1903459999999999</v>
       </c>
-      <c r="C53" s="25">
+      <c r="C53" s="13">
         <f t="shared" ref="C53:C60" si="6">$F$61/B53</f>
         <v>1.1486977549198114</v>
       </c>
       <c r="D53" s="1">
         <v>1.4362459999999999</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="12">
         <f t="shared" ref="E53:E60" si="7">$F$61/D53</f>
         <v>0.95202895449510594</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="3">
         <v>1.35592</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>3</v>
       </c>
       <c r="B54" s="1">
         <v>1.5236829999999999</v>
       </c>
-      <c r="C54" s="25">
+      <c r="C54" s="13">
         <f t="shared" si="6"/>
         <v>0.89739649111906994</v>
       </c>
       <c r="D54" s="1">
         <v>1.548279</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="12">
         <f t="shared" si="7"/>
         <v>0.88314042738923526</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="3">
         <v>1.3591</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>4</v>
       </c>
       <c r="B55" s="1">
         <v>2.0036330000000002</v>
       </c>
-      <c r="C55" s="25">
+      <c r="C55" s="13">
         <f t="shared" si="6"/>
         <v>0.68243424707906974</v>
       </c>
       <c r="D55" s="1">
         <v>2.0205540000000002</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="12">
         <f t="shared" si="7"/>
         <v>0.67671924520590776</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="3">
         <v>1.3765499999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>8</v>
       </c>
       <c r="B56" s="1">
         <v>4.7849700000000004</v>
       </c>
-      <c r="C56" s="25">
+      <c r="C56" s="13">
         <f t="shared" si="6"/>
         <v>0.28575890293518613</v>
       </c>
       <c r="D56" s="1">
         <v>4.617489</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="12">
         <f t="shared" si="7"/>
         <v>0.29612366759894349</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="3">
         <v>1.3715299999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>11</v>
       </c>
       <c r="B57" s="1">
         <v>5.0782959999999999</v>
       </c>
-      <c r="C57" s="25">
+      <c r="C57" s="13">
         <f t="shared" si="6"/>
         <v>0.26925326483091533</v>
       </c>
       <c r="D57" s="1">
         <v>5.0115210000000001</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="12">
         <f t="shared" si="7"/>
         <v>0.27284087560997505</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="3">
         <v>1.3706400000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>16</v>
       </c>
       <c r="B58" s="1">
         <v>5.0325949999999997</v>
       </c>
-      <c r="C58" s="25">
+      <c r="C58" s="13">
         <f t="shared" si="6"/>
         <v>0.27169835398592135</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="10">
         <v>5.0498190000000003</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="12">
         <f t="shared" si="7"/>
         <v>0.27077164107818075</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="9">
         <v>1.3510800000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="5">
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>32</v>
       </c>
       <c r="B59" s="1">
         <v>5.0960580000000002</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="13">
         <f t="shared" si="6"/>
         <v>0.26831479896378296</v>
       </c>
       <c r="D59" s="1">
         <v>5.0746310000000001</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="12">
         <f t="shared" si="7"/>
         <v>0.26944772492379798</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="3">
         <v>1.3684700000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="6">
+    <row r="60" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>48</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="5">
         <v>5.1157000000000004</v>
       </c>
-      <c r="C60" s="26">
+      <c r="C60" s="14">
         <f t="shared" si="6"/>
         <v>0.26728459013972239</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="5">
         <v>5.2641200000000001</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E60" s="15">
         <f t="shared" si="7"/>
         <v>0.25974859573447751</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="4">
         <v>1.38151</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="28">
+      <c r="F61" s="16">
         <f>AVERAGE(F52:F60)</f>
         <v>1.3673477777777778</v>
       </c>
     </row>
+    <row r="67" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="28"/>
+    </row>
+    <row r="69" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="20"/>
+      <c r="D71" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="18"/>
+      <c r="B72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="24"/>
+    </row>
+    <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>1</v>
+      </c>
+      <c r="B73" s="7">
+        <v>8.7810129999999997</v>
+      </c>
+      <c r="C73" s="13">
+        <f>F$82/B73</f>
+        <v>1.0035461993077819</v>
+      </c>
+      <c r="D73" s="6">
+        <v>8.8160900000000009</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>2</v>
+      </c>
+      <c r="B74" s="1">
+        <v>6.7188280000000002</v>
+      </c>
+      <c r="C74" s="13">
+        <f t="shared" ref="C74:C81" si="8">F$82/B74</f>
+        <v>1.3115609183956225</v>
+      </c>
+      <c r="D74" s="3">
+        <v>8.8116599999999998</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1">
+        <v>5.1098980000000003</v>
+      </c>
+      <c r="C75" s="13">
+        <f t="shared" si="8"/>
+        <v>1.724526051639822</v>
+      </c>
+      <c r="D75" s="3">
+        <v>8.8116599999999998</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>4.3130879999999996</v>
+      </c>
+      <c r="C76" s="13">
+        <f t="shared" si="8"/>
+        <v>2.0431190419073815</v>
+      </c>
+      <c r="D76" s="3">
+        <v>8.8116599999999998</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>16</v>
+      </c>
+      <c r="B77" s="1">
+        <v>3.419216</v>
+      </c>
+      <c r="C77" s="13">
+        <f t="shared" si="8"/>
+        <v>2.577243503254028</v>
+      </c>
+      <c r="D77" s="3">
+        <v>8.8116599999999998</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="29">
+        <v>32</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2.2676780000000001</v>
+      </c>
+      <c r="C78" s="13">
+        <f t="shared" si="8"/>
+        <v>3.8859803826743584</v>
+      </c>
+      <c r="D78" s="3">
+        <v>8.8116599999999998</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>64</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1.3095889999999999</v>
+      </c>
+      <c r="C79" s="13">
+        <f t="shared" si="8"/>
+        <v>6.7289448996763292</v>
+      </c>
+      <c r="D79" s="9">
+        <v>8.8116599999999998</v>
+      </c>
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>128</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1.2921929999999999</v>
+      </c>
+      <c r="C80" s="13">
+        <f t="shared" si="8"/>
+        <v>6.819532548328481</v>
+      </c>
+      <c r="D80" s="3">
+        <v>8.8116599999999998</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>256</v>
+      </c>
+      <c r="B81" s="5">
+        <v>1.0423579999999999</v>
+      </c>
+      <c r="C81" s="13">
+        <f t="shared" si="8"/>
+        <v>8.4540553458813807</v>
+      </c>
+      <c r="D81" s="3">
+        <v>8.8116599999999998</v>
+      </c>
+      <c r="E81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="16">
+        <f>AVERAGE(D73:D81)</f>
+        <v>8.8121522222222239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="28"/>
+    </row>
+    <row r="88" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+    </row>
+    <row r="89" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="20"/>
+      <c r="D90" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="18"/>
+      <c r="B91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="24"/>
+    </row>
+    <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>1</v>
+      </c>
+      <c r="B92" s="7">
+        <v>2.234362</v>
+      </c>
+      <c r="C92" s="13">
+        <f>F$101/B92</f>
+        <v>0.99843614319334906</v>
+      </c>
+      <c r="D92" s="6">
+        <v>2.2092499999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>2</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1.39554</v>
+      </c>
+      <c r="C93" s="13">
+        <f>F$101/B93</f>
+        <v>1.5985695700429781</v>
+      </c>
+      <c r="D93" s="3">
+        <v>2.2335699999999998</v>
+      </c>
+      <c r="E93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>4</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1.245593</v>
+      </c>
+      <c r="C94" s="13">
+        <f t="shared" ref="C94:C100" si="9">F$101/B94</f>
+        <v>1.791008602149962</v>
+      </c>
+      <c r="D94" s="3">
+        <v>2.2335699999999998</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1.0580849999999999</v>
+      </c>
+      <c r="C95" s="13">
+        <f t="shared" si="9"/>
+        <v>2.1084012889113612</v>
+      </c>
+      <c r="D95" s="3">
+        <v>2.2335699999999998</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>16</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.807064</v>
+      </c>
+      <c r="C96" s="13">
+        <f t="shared" si="9"/>
+        <v>2.7641770389681333</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2.2335699999999998</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="29">
+        <v>32</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.51250200000000001</v>
+      </c>
+      <c r="C97" s="13">
+        <f t="shared" si="9"/>
+        <v>4.3528957502171259</v>
+      </c>
+      <c r="D97" s="3">
+        <v>2.2335699999999998</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>64</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.37041800000000003</v>
+      </c>
+      <c r="C98" s="13">
+        <f t="shared" si="9"/>
+        <v>6.0225684976911964</v>
+      </c>
+      <c r="D98" s="3">
+        <v>2.2335699999999998</v>
+      </c>
+      <c r="E98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>128</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.39628000000000002</v>
+      </c>
+      <c r="C99" s="13">
+        <f t="shared" si="9"/>
+        <v>5.6295240178100778</v>
+      </c>
+      <c r="D99" s="3">
+        <v>2.2335699999999998</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>256</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0.21063599999999999</v>
+      </c>
+      <c r="C100" s="13">
+        <f t="shared" si="9"/>
+        <v>10.591103979271244</v>
+      </c>
+      <c r="D100" s="3">
+        <v>2.2335699999999998</v>
+      </c>
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="16">
+        <f>AVERAGE(D92:D100)</f>
+        <v>2.2308677777777777</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="30">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="30">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="30">
+        <v>4</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="30">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="30">
+        <v>16</v>
+      </c>
+      <c r="B112">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="31">
+        <v>32</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="30">
+        <v>64</v>
+      </c>
+      <c r="B114">
+        <v>16</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="30">
+        <v>128</v>
+      </c>
+      <c r="B115">
+        <v>16</v>
+      </c>
+      <c r="C115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="30">
+        <v>256</v>
+      </c>
+      <c r="B116">
+        <v>32</v>
+      </c>
+      <c r="C116">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E134" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="32">
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
@@ -6560,18 +9146,6 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Laufzeiten OpenMP.xlsx
+++ b/Laufzeiten OpenMP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11440" yWindow="-28340" windowWidth="33020" windowHeight="22760"/>
+    <workbookView xWindow="8260" yWindow="-28340" windowWidth="33020" windowHeight="22760"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -7145,13 +7145,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>23091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>415637</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>157018</xdr:rowOff>
+      <xdr:rowOff>180109</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7536,7 +7536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>

--- a/Laufzeiten OpenMP.xlsx
+++ b/Laufzeiten OpenMP.xlsx
@@ -522,6 +522,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,33 +549,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -756,11 +756,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="640423648"/>
-        <c:axId val="640843440"/>
+        <c:axId val="654779568"/>
+        <c:axId val="709029872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="640423648"/>
+        <c:axId val="654779568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,6 +822,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -858,12 +859,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640843440"/>
+        <c:crossAx val="709029872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="640843440"/>
+        <c:axId val="709029872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +976,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640423648"/>
+        <c:crossAx val="654779568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1200,11 +1201,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="511560688"/>
-        <c:axId val="511381360"/>
+        <c:axId val="708890192"/>
+        <c:axId val="645316896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="511560688"/>
+        <c:axId val="708890192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,12 +1303,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511381360"/>
+        <c:crossAx val="645316896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="511381360"/>
+        <c:axId val="645316896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1419,7 +1420,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511560688"/>
+        <c:crossAx val="708890192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1736,11 +1737,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="659104272"/>
-        <c:axId val="707692320"/>
+        <c:axId val="643418368"/>
+        <c:axId val="645736272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="659104272"/>
+        <c:axId val="643418368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,12 +1839,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="707692320"/>
+        <c:crossAx val="645736272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="707692320"/>
+        <c:axId val="645736272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +1956,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="659104272"/>
+        <c:crossAx val="643418368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2304,11 +2305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="705401536"/>
-        <c:axId val="704789152"/>
+        <c:axId val="708855728"/>
+        <c:axId val="708859120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="705401536"/>
+        <c:axId val="708855728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2406,12 +2407,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704789152"/>
+        <c:crossAx val="708859120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="704789152"/>
+        <c:axId val="708859120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,7 +2524,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705401536"/>
+        <c:crossAx val="708855728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2684,7 +2685,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Speedup Implementation 1</c:v>
+            <c:v>Speedup Implementation A</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2776,7 +2777,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Speedup Implementation 2</c:v>
+            <c:v>Speedup Implementation B</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2872,11 +2873,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="661424592"/>
-        <c:axId val="510554352"/>
+        <c:axId val="708980304"/>
+        <c:axId val="644519824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="661424592"/>
+        <c:axId val="708980304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2974,12 +2975,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510554352"/>
+        <c:crossAx val="644519824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="510554352"/>
+        <c:axId val="644519824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3091,7 +3092,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661424592"/>
+        <c:crossAx val="708980304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3252,7 +3253,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Speedup Implementation 1</c:v>
+            <c:v>Speedup Implementation A</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3344,7 +3345,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Speedup Implementation 2</c:v>
+            <c:v>Speedup Implementation B</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3440,11 +3441,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="660116128"/>
-        <c:axId val="550361696"/>
+        <c:axId val="644482272"/>
+        <c:axId val="654505952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="660116128"/>
+        <c:axId val="644482272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3542,12 +3543,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550361696"/>
+        <c:crossAx val="654505952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="550361696"/>
+        <c:axId val="654505952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3659,7 +3660,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660116128"/>
+        <c:crossAx val="644482272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7536,7 +7537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
@@ -7549,12 +7550,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
@@ -7563,33 +7564,33 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -7602,7 +7603,7 @@
       <c r="E6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -7809,33 +7810,33 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23" t="s">
+      <c r="E19" s="31"/>
+      <c r="F19" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
@@ -7848,7 +7849,7 @@
       <c r="E20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="24"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
@@ -8056,12 +8057,12 @@
     </row>
     <row r="32" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
@@ -8070,33 +8071,33 @@
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23" t="s">
+      <c r="E36" s="31"/>
+      <c r="F36" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
@@ -8109,7 +8110,7 @@
       <c r="E37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="24"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
@@ -8319,33 +8320,33 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="21" t="s">
+      <c r="C50" s="27"/>
+      <c r="D50" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23" t="s">
+      <c r="E50" s="31"/>
+      <c r="F50" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="2" t="s">
         <v>1</v>
       </c>
@@ -8358,7 +8359,7 @@
       <c r="E51" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="24"/>
+      <c r="F51" s="29"/>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
@@ -8569,12 +8570,12 @@
     </row>
     <row r="67" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="28"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="22"/>
     </row>
     <row r="69" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
@@ -8583,36 +8584,36 @@
       <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="23" t="s">
+      <c r="C71" s="27"/>
+      <c r="D71" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="24"/>
+      <c r="D72" s="29"/>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
@@ -8702,7 +8703,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="29">
+      <c r="A78" s="17">
         <v>32</v>
       </c>
       <c r="B78" s="1">
@@ -8784,12 +8785,12 @@
     </row>
     <row r="86" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="28"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
@@ -8798,36 +8799,36 @@
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C90" s="20"/>
-      <c r="D90" s="23" t="s">
+      <c r="C90" s="27"/>
+      <c r="D90" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="18"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="24"/>
+      <c r="D91" s="29"/>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
@@ -8917,7 +8918,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="29">
+      <c r="A97" s="17">
         <v>32</v>
       </c>
       <c r="B97" s="1">
@@ -9009,7 +9010,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="30">
+      <c r="A108" s="18">
         <v>1</v>
       </c>
       <c r="B108">
@@ -9020,7 +9021,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="30">
+      <c r="A109" s="18">
         <v>2</v>
       </c>
       <c r="B109">
@@ -9031,7 +9032,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="30">
+      <c r="A110" s="18">
         <v>4</v>
       </c>
       <c r="B110">
@@ -9042,7 +9043,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="30">
+      <c r="A111" s="18">
         <v>8</v>
       </c>
       <c r="B111">
@@ -9053,7 +9054,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="30">
+      <c r="A112" s="18">
         <v>16</v>
       </c>
       <c r="B112">
@@ -9064,7 +9065,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="31">
+      <c r="A113" s="19">
         <v>32</v>
       </c>
       <c r="B113">
@@ -9075,7 +9076,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="30">
+      <c r="A114" s="18">
         <v>64</v>
       </c>
       <c r="B114">
@@ -9086,7 +9087,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="30">
+      <c r="A115" s="18">
         <v>128</v>
       </c>
       <c r="B115">
@@ -9097,7 +9098,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="30">
+      <c r="A116" s="18">
         <v>256</v>
       </c>
       <c r="B116">
@@ -9114,11 +9115,17 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A49:F49"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="B68:E68"/>
@@ -9135,17 +9142,11 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:D91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
